--- a/biology/Botanique/Amherstia_nobilis/Amherstia_nobilis.xlsx
+++ b/biology/Botanique/Amherstia_nobilis/Amherstia_nobilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amherstia nobilis ou Fierté de Birmanie est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire de Thaïlande et de Birmanie. C'est l'unique espèce acceptée du genre Amherstia  (genre monotypique).
 C'est un arbre appelé parfois « reine des arbres à fleurs » et aussi « arbre à orchidées » pour ses fleurs extraordinaires (bien que ce nom soit en principe réservé aux espèces du genre Bauhinia). 
 Originaire du Myanmar (son nom anglais est Pride of Burma, « fierté de Birmanie »), l'Amherstia nobilis est cultivé surtout en Asie du Sud-Est mais il ne fructifie que rarement et sa multiplication par boutures n'est pas facile : rien d'étonnant donc à ce que, malgré sa splendeur, on ne le rencontre que rarement.
-Très rare à l'état sauvage, il n'a été collecté dans son habitat naturel qu'un petit nombre de fois (Seulement deux fois selon le Guide Delachaux : Plantes tropicales[3]). Son nom scientifique rappelle Lady Amherst (épouse de William Pitt Amherst, gouverneur général des Indes 1823-1828), comme le faisan de Lady Amherst (Chrysolophus amherstiae).
+Très rare à l'état sauvage, il n'a été collecté dans son habitat naturel qu'un petit nombre de fois (Seulement deux fois selon le Guide Delachaux : Plantes tropicales). Son nom scientifique rappelle Lady Amherst (épouse de William Pitt Amherst, gouverneur général des Indes 1823-1828), comme le faisan de Lady Amherst (Chrysolophus amherstiae).
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fierté de Birmanie est un arbre au feuillage persistant à couronne ronde atteignant 12 à 16 m de hauteur[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fierté de Birmanie est un arbre au feuillage persistant à couronne ronde atteignant 12 à 16 m de hauteur.
 Les feuilles composées possèdent de 6 à 8 folioles oblongues. Leur face supérieure est vert foncé. Leur face inférieure est blanchâtre. Elles peuvent atteindre 1 m de longueur.
 La floraison principale à lieu par exemple de novembre à avril au Sri Lanka mais l'arbre porte quelques fleurs pendant presque toute l'année.
 Les fleurs poussent en grappes étroites et coniques sur une longue inflorescence d'un rouge cramoisi atteignant de 80 à 100 cm de longueur. 
